--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T15:57:28+00:00</t>
+    <t>2025-07-08T16:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-medicationrequest.xlsx
+++ b/RelationEtMedicamentsVirtuels/ig/StructureDefinition-fr-medicationrequest.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T16:24:33+00:00</t>
+    <t>2025-07-09T16:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
